--- a/biology/Botanique/Oreillette_(botanique)/Oreillette_(botanique).xlsx
+++ b/biology/Botanique/Oreillette_(botanique)/Oreillette_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, les oreillettes, ou auricules (du latin auricula), sont des appendices situés à la base du limbe d'une feuille ou d'une bractée embrassante, d'un pétale ou encore à la base du pétiole, de part et d'autre de la ligne d'insertion.
 Un organe pourvu d'oreillettes est dit « auriculé ».
@@ -512,9 +524,11 @@
           <t>Poaceae</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les plantes de la famille des Poaceae (graminées), les oreillettes sont des expansions symétriques du limbe, à la base de celui-ci à la jonction avec le gaine foliaire. Ces expansions, peuvent rester dans le plan du limbe foliaire, ou s'infléchir. Elles peuvent également s'entrecroiser, comme chez les plantes du genre Hordeum. Leur forme variable, leur caractère cilié ou non, leur couleur, leur taille, leur présence ou leur absence, sont autant de caractères taxinomiques importants pour distinguer les différents genres de graminées[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les plantes de la famille des Poaceae (graminées), les oreillettes sont des expansions symétriques du limbe, à la base de celui-ci à la jonction avec le gaine foliaire. Ces expansions, peuvent rester dans le plan du limbe foliaire, ou s'infléchir. Elles peuvent également s'entrecroiser, comme chez les plantes du genre Hordeum. Leur forme variable, leur caractère cilié ou non, leur couleur, leur taille, leur présence ou leur absence, sont autant de caractères taxinomiques importants pour distinguer les différents genres de graminées.
 </t>
         </is>
       </c>
